--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.041221-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.041221-1.xlsx_with_dialog_acts.xlsx
@@ -813,12 +813,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1117,12 +1117,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1535,12 +1535,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1573,12 +1573,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2333,12 +2333,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2903,12 +2903,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3169,12 +3169,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3549,12 +3549,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3739,12 +3739,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3967,12 +3967,12 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4385,12 +4385,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4461,12 +4461,12 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4689,12 +4689,12 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4993,12 +4993,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5343,12 +5343,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5761,12 +5761,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6677,12 +6677,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6753,12 +6753,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7095,12 +7095,12 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7779,12 +7779,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8159,12 +8159,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8311,12 +8311,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8539,12 +8539,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8843,12 +8843,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9071,12 +9071,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9413,12 +9413,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9641,12 +9641,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10249,12 +10249,12 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10781,12 +10781,12 @@
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11013,12 +11013,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11089,12 +11089,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11393,12 +11393,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11431,12 +11431,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11545,12 +11545,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11583,12 +11583,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12229,12 +12229,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12723,12 +12723,12 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13027,12 +13027,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13179,12 +13179,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13411,12 +13411,12 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13449,12 +13449,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13833,12 +13833,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14257,12 +14257,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14447,12 +14447,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
